--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/FastDeliveryRemainingBottlesReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/FastDeliveryRemainingBottlesReport.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm87\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vodovoz\repo\vodovoz_01\Source\Applications\Desktop\Vodovoz\bin\DebugWin\Reports\Logistic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E51D90-1327-4023-9B48-AF5BA97D1678}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576641BB-6292-4806-B384-50F4F1DB2D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="660" windowWidth="19860" windowHeight="14940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$4:$H$5</definedName>
-    <definedName name="Rows">Лист1!$A$5:$H$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$4:$L$5</definedName>
+    <definedName name="Rows">Лист1!$A$5:$L$6</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>№ МЛ</t>
   </si>
@@ -43,12 +43,6 @@
     <t>Кол-во бут остаток</t>
   </si>
   <si>
-    <t>Кол-во бут отдано</t>
-  </si>
-  <si>
-    <t>Кол-во бут загружено</t>
-  </si>
-  <si>
     <t>д/в</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
     <t>{{item.DriverFullName}}</t>
   </si>
   <si>
-    <t>{{item.BottlesLoadedCount}}</t>
-  </si>
-  <si>
     <t>{{item.RemainingBottlesCount}}</t>
   </si>
   <si>
@@ -83,6 +74,42 @@
   </si>
   <si>
     <t>Создан {{ReportCreatedAt.ToString("yyyy-MM-dd HH:mm:ss")}}</t>
+  </si>
+  <si>
+    <t>Загружено запас ДЗЧ</t>
+  </si>
+  <si>
+    <t>Загружно плановые заказы</t>
+  </si>
+  <si>
+    <t>Получено от других водителей</t>
+  </si>
+  <si>
+    <t>Отгружено по заказам с ДЗЧ</t>
+  </si>
+  <si>
+    <t>Отгружено плановые заказы</t>
+  </si>
+  <si>
+    <t>Передано другим водителям</t>
+  </si>
+  <si>
+    <t>{{item.BottlesLoadedAdditionallyCount}}</t>
+  </si>
+  <si>
+    <t>{{item.BottlesLoadedPlanCount}}</t>
+  </si>
+  <si>
+    <t>{{item.BottlesLoadedFromOtherDriversCount}}</t>
+  </si>
+  <si>
+    <t>{{item.BottlesShippedPlanCount}}</t>
+  </si>
+  <si>
+    <t>{{item.BottlesShippedFastDeliveryCount}}</t>
+  </si>
+  <si>
+    <t>{{item.BottlesTransferedToOtherDriversCount}}</t>
   </si>
 </sst>
 </file>
@@ -486,10 +513,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMG6"/>
+  <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -498,18 +525,18 @@
     <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
-    <col min="9" max="1019" width="10.6640625" style="1" customWidth="1"/>
-    <col min="1020" max="1020" width="14.83203125" style="2" customWidth="1"/>
-    <col min="1021" max="1021" width="14.83203125" customWidth="1"/>
+    <col min="5" max="9" width="11.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
+    <col min="13" max="1023" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1024" max="1024" width="14.83203125" style="2" customWidth="1"/>
+    <col min="1025" max="1025" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1021" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12 1025:1025" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -518,10 +545,14 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:1021" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12 1025:1025" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -530,13 +561,17 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
-    <row r="4" spans="1:1021" s="4" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12 1025:1025" s="4" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
@@ -545,65 +580,100 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AMG4" s="5"/>
+      <c r="AMK4" s="5"/>
     </row>
-    <row r="5" spans="1:1021" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12 1025:1025" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="6" t="e">
-        <f t="shared" ref="F5" si="0">E5-G5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="6" spans="1:1021" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12 1025:1025" x14ac:dyDescent="0.2">
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H5" xr:uid="{D8D12F78-D9D9-4419-A8AB-1B1463409DE1}"/>
+  <autoFilter ref="A4:L5" xr:uid="{D8D12F78-D9D9-4419-A8AB-1B1463409DE1}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
